--- a/Students_test/poppj-jmp448.xlsx
+++ b/Students_test/poppj-jmp448.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15540" windowWidth="16120" xWindow="9020" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15540" windowWidth="16120" xWindow="3440" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PPF 2007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PPF 2007" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">'PPF 2007'!$A$1:$M$114</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -995,8 +995,8 @@
   </sheetPr>
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="I79" sqref="I79:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -1013,8 +1013,8 @@
     <col customWidth="1" max="11" min="11" style="33" width="9.5"/>
     <col customWidth="1" max="12" min="12" style="33" width="5.1640625"/>
     <col customWidth="1" max="13" min="13" style="33" width="9.6640625"/>
-    <col customWidth="1" max="17" min="14" style="33" width="9.1640625"/>
-    <col customWidth="1" max="16384" min="18" style="33" width="9.1640625"/>
+    <col customWidth="1" max="21" min="14" style="33" width="9.1640625"/>
+    <col customWidth="1" max="16384" min="22" style="33" width="9.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1790,7 +1790,6 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="4" t="n"/>
-      <c r="G75" s="33" t="n"/>
       <c r="I75" s="18" t="n"/>
       <c r="K75" s="18" t="n"/>
     </row>
@@ -2068,7 +2067,7 @@
       <c r="K98" s="10" t="n"/>
       <c r="L98" s="10" t="n"/>
       <c r="M98" s="37" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:14">

--- a/Students_test/poppj-jmp448.xlsx
+++ b/Students_test/poppj-jmp448.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15540" windowWidth="16120" xWindow="3440" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15540" windowWidth="16120" xWindow="860" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="PPF 2007" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,12 +11,12 @@
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">'PPF 2007'!$A$1:$M$114</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>BIOLOGICAL ENGINEERING</t>
   </si>
@@ -96,28 +96,31 @@
     <t>Calculus for Engineers*</t>
   </si>
   <si>
-    <t>MATH 1910</t>
+    <t>MATH1910</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>MATH1920</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Engineering Math* (Diff. Equations)</t>
+  </si>
+  <si>
+    <t>MATH2930</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
-    <t>MATH 1920</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Engineering Math* (Diff. Equations)</t>
-  </si>
-  <si>
-    <t>MATH 2930</t>
-  </si>
-  <si>
     <t>Engineering Math* (Linear Algebra)</t>
   </si>
   <si>
-    <t xml:space="preserve">MATH 2940 </t>
+    <t>MATH2940</t>
   </si>
   <si>
     <t>*Must earn at least a C- or repeat course</t>
@@ -132,7 +135,7 @@
     <t>Mechanics</t>
   </si>
   <si>
-    <t>PHYS 1112</t>
+    <t>PHYS1112</t>
   </si>
   <si>
     <t>AP</t>
@@ -141,7 +144,7 @@
     <t>Heat/Electromagnetism</t>
   </si>
   <si>
-    <t>PHYS 2213</t>
+    <t>PHYS2213</t>
   </si>
   <si>
     <t>3.</t>
@@ -153,13 +156,13 @@
     <t>General Chemistry</t>
   </si>
   <si>
-    <t>CHEM AP</t>
+    <t>CHEM2090</t>
   </si>
   <si>
     <t>Organic Chemistry</t>
   </si>
   <si>
-    <t>CHEM 1570</t>
+    <t>CHEM1570</t>
   </si>
   <si>
     <t>4.</t>
@@ -171,7 +174,7 @@
     <t xml:space="preserve">Introductory Biological Science </t>
   </si>
   <si>
-    <t>BIOMG 1350</t>
+    <t>BIOMG1350</t>
   </si>
   <si>
     <t>Introductory Biological Science</t>
@@ -183,234 +186,219 @@
     <t>Introductory Bio Lab</t>
   </si>
   <si>
-    <t>BIOG 1500</t>
+    <t>BIOG1500</t>
   </si>
   <si>
     <t>Biochemistry</t>
   </si>
   <si>
-    <t>BIOMG 3300</t>
+    <t>BIOMG3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BIOMG 3300 (4) or 3330 (4) or 3310+3320 (5) or 3350 (4)</t>
+  </si>
+  <si>
+    <t>Advanced Biol. Sci. Elective (to complete 15 cr)</t>
+  </si>
+  <si>
+    <t>BIOMG3340</t>
+  </si>
+  <si>
+    <t>BIONB2220</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Written Expression (First Year Writing Seminars): 6 credits</t>
+  </si>
+  <si>
+    <t>FWS1000</t>
+  </si>
+  <si>
+    <t>ENGL2890</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Liberal Studies: 18 credits (Minimum of six courses in at least three of the seven groups; at least two of the six</t>
+  </si>
+  <si>
+    <t>courses at or above 2000 level.)</t>
+  </si>
+  <si>
+    <t>(1) Cultural Analysis (CA)</t>
+  </si>
+  <si>
+    <t>(2) Historical Analysis (HA)</t>
+  </si>
+  <si>
+    <t>(3) Literature and the Arts (LA)</t>
+  </si>
+  <si>
+    <t>(4) Knowledge, Cognition and Moral Reasoning (KCM)</t>
+  </si>
+  <si>
+    <t>(5) Social &amp; Behavior and Analysis (SBA)</t>
+  </si>
+  <si>
+    <t>(6) Foreign Languages (not literature) (FL)</t>
+  </si>
+  <si>
+    <t>(7) Communications in Engineering (CE)</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Computer Programming: 4 credits</t>
+  </si>
+  <si>
+    <t>Intro to Computer Programming</t>
+  </si>
+  <si>
+    <t>BEE1510</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Engineering Distribution and Field Courses: 48 credits</t>
+  </si>
+  <si>
+    <t>(a) Required Courses</t>
+  </si>
+  <si>
+    <t>Mechanics of Solids</t>
+  </si>
+  <si>
+    <t>ENGRD2020</t>
+  </si>
+  <si>
+    <t>Engineering Statistics and Probability</t>
+  </si>
+  <si>
+    <t>ENGRD 2700</t>
+  </si>
+  <si>
+    <t>(b) Required Biological Engineering Core Courses</t>
+  </si>
+  <si>
+    <t>Intro to Engineering</t>
+  </si>
+  <si>
+    <t>BEE1200</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>BEE2220</t>
   </si>
   <si>
     <t>A-</t>
   </si>
   <si>
-    <t xml:space="preserve">    BIOMG 3300 (4) or 3330 (4) or 3310+3320 (5) or 3350 (4)</t>
-  </si>
-  <si>
-    <t>Advanced Biol. Sci. Elective (to complete 15 cr)</t>
-  </si>
-  <si>
-    <t>BIONB 2220</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Written Expression (First Year Writing Seminars): 6 credits</t>
-  </si>
-  <si>
-    <t>ENGL 1167</t>
-  </si>
-  <si>
-    <t>ENGL AP</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Liberal Studies: 18 credits (Minimum of six courses in at least three of the seven groups; at least two of the six</t>
-  </si>
-  <si>
-    <t>courses at or above 2000 level.)</t>
-  </si>
-  <si>
-    <t>(1) Cultural Analysis (CA)</t>
-  </si>
-  <si>
-    <t>(2) Historical Analysis (HA)</t>
-  </si>
-  <si>
-    <t>(3) Literature and the Arts (LA)</t>
-  </si>
-  <si>
-    <t>(4) Knowledge, Cognition and Moral Reasoning (KCM)</t>
-  </si>
-  <si>
-    <t>(5) Social &amp; Behavior and Analysis (SBA)</t>
-  </si>
-  <si>
-    <t>(6) Foreign Languages (not literature) (FL)</t>
-  </si>
-  <si>
-    <t>(7) Communications in Engineering (CE)</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Computer Programming: 4 credits</t>
-  </si>
-  <si>
-    <t>Intro to Computer Programming</t>
-  </si>
-  <si>
-    <t>BEE 1510</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Engineering Distribution and Field Courses: 48 credits</t>
-  </si>
-  <si>
-    <t>(a) Required Courses</t>
-  </si>
-  <si>
-    <t>Mechanics of Solids</t>
-  </si>
-  <si>
-    <t>ENGRD 2020</t>
-  </si>
-  <si>
-    <t>Engineering Statistics and Probability</t>
-  </si>
-  <si>
-    <t>ENGRD 2700</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>(b) Required Biological Engineering Core Courses</t>
-  </si>
-  <si>
-    <t>Intro to Engineering</t>
+    <t>Engineering Distribution</t>
+  </si>
+  <si>
+    <t>BEE2600</t>
+  </si>
+  <si>
+    <t>Bio-Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>BEE3310</t>
+  </si>
+  <si>
+    <t>Design and Analysis of Biomaterials</t>
+  </si>
+  <si>
+    <t>BEE3400</t>
+  </si>
+  <si>
+    <t>Heat and Mass Transfer in BioEng</t>
+  </si>
+  <si>
+    <t>BEE3500</t>
+  </si>
+  <si>
+    <t>Molecular and Cellular BioEng</t>
+  </si>
+  <si>
+    <t>BEE3600</t>
+  </si>
+  <si>
+    <t>Bioinstrumentation</t>
+  </si>
+  <si>
+    <t>BEE 4500</t>
+  </si>
+  <si>
+    <t>(c) Biological Engineering Focus Area Electives</t>
+  </si>
+  <si>
+    <t>15 or more credits of courses from 1 or more of the 7 focus areas to complete the 48 engineering credits</t>
+  </si>
+  <si>
+    <t>Focus Area elective 1</t>
+  </si>
+  <si>
+    <t>BME3300</t>
+  </si>
+  <si>
+    <t>Focus Area elective 2</t>
+  </si>
+  <si>
+    <t>CS4775</t>
+  </si>
+  <si>
+    <t>Focus Area elective 3</t>
+  </si>
+  <si>
+    <t>Focus Area elective 4</t>
+  </si>
+  <si>
+    <t>Focus Area elective 5</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Approved Electives:  6 credits</t>
+  </si>
+  <si>
+    <t>BEE 4971</t>
+  </si>
+  <si>
+    <t>BEE 4990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAND Total Credits: </t>
+  </si>
+  <si>
+    <t>(Minimum 128)</t>
+  </si>
+  <si>
+    <t>Technical Writing Course</t>
+  </si>
+  <si>
+    <t>Capstone Design Course</t>
+  </si>
+  <si>
+    <t>Laboratory Course</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
   <si>
     <t>BEE 1200</t>
   </si>
   <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>BEE2220</t>
-  </si>
-  <si>
-    <t>Engineering Distribution</t>
-  </si>
-  <si>
-    <t>BEE 2600</t>
-  </si>
-  <si>
-    <t>Bio-Fluid Mechanics</t>
-  </si>
-  <si>
-    <t>BEE3310</t>
-  </si>
-  <si>
-    <t>Design and Analysis of Biomaterials</t>
-  </si>
-  <si>
-    <t>BEE 3400</t>
-  </si>
-  <si>
-    <t>Heat and Mass Transfer in BioEng</t>
-  </si>
-  <si>
-    <t>BEE3500</t>
-  </si>
-  <si>
-    <t>Molecular and Cellular BioEng</t>
-  </si>
-  <si>
-    <t>BEE 3600</t>
-  </si>
-  <si>
-    <t>Bioinstrumentation</t>
-  </si>
-  <si>
-    <t>BEE 4500</t>
-  </si>
-  <si>
-    <t>SP19</t>
-  </si>
-  <si>
-    <t>(c) Biological Engineering Focus Area Electives</t>
-  </si>
-  <si>
-    <t>15 or more credits of courses from 1 or more of the 7 focus areas to complete the 48 engineering credits</t>
-  </si>
-  <si>
-    <t>Focus Area elective 1</t>
-  </si>
-  <si>
-    <t>BEE 4971</t>
-  </si>
-  <si>
-    <t>A/A</t>
-  </si>
-  <si>
-    <t>Focus Area elective 2</t>
-  </si>
-  <si>
-    <t>CS 4820</t>
-  </si>
-  <si>
-    <t>Focus Area elective 3</t>
-  </si>
-  <si>
-    <t>MEIN 30240</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Focus Area elective 4</t>
-  </si>
-  <si>
-    <t>BME 3300</t>
-  </si>
-  <si>
-    <t>Fa18</t>
-  </si>
-  <si>
-    <t>Focus Area elective 5</t>
-  </si>
-  <si>
-    <t>CS 4775</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Approved Electives:  6 credits</t>
-  </si>
-  <si>
-    <t>BEE 4990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAND Total Credits: </t>
-  </si>
-  <si>
-    <t>(Minimum 128)</t>
-  </si>
-  <si>
-    <t>Technical Writing Course</t>
-  </si>
-  <si>
-    <t>Capstone Design Course</t>
-  </si>
-  <si>
-    <t>Laboratory Course</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>EHS Lab Safety Course</t>
   </si>
   <si>
@@ -427,6 +415,27 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>The following courses are needed for graduation:</t>
+  </si>
+  <si>
+    <t>Biochemistry(4 credits)</t>
+  </si>
+  <si>
+    <t>Advanced Biology to complete 15 credits of Biological Sciences</t>
+  </si>
+  <si>
+    <t>Liberal Arts(18 credits)</t>
+  </si>
+  <si>
+    <t>CEE3040 or ENGRD2700</t>
+  </si>
+  <si>
+    <t>BEE4500</t>
+  </si>
+  <si>
+    <t>Focus Areas to complete 48 credits of Engineering Requirements</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1002,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="I79" sqref="I79:K79"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -1013,8 +1022,8 @@
     <col customWidth="1" max="11" min="11" style="33" width="9.5"/>
     <col customWidth="1" max="12" min="12" style="33" width="5.1640625"/>
     <col customWidth="1" max="13" min="13" style="33" width="9.6640625"/>
-    <col customWidth="1" max="21" min="14" style="33" width="9.1640625"/>
-    <col customWidth="1" max="16384" min="22" style="33" width="9.1640625"/>
+    <col customWidth="1" max="35" min="14" style="33" width="9.1640625"/>
+    <col customWidth="1" max="16384" min="36" style="33" width="9.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1179,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K14" s="37" t="n">
         <v>4</v>
@@ -1188,25 +1197,21 @@
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="n"/>
       <c r="B15" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="37" t="n">
-        <v>4</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I15" s="38" t="n"/>
+      <c r="K15" s="37" t="n"/>
       <c r="M15" s="37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1214,34 +1219,34 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>29</v>
@@ -1250,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1259,10 +1264,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" s="10" t="n"/>
       <c r="K22" s="10" t="n"/>
@@ -1271,13 +1276,13 @@
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="37" t="n">
         <v>4</v>
@@ -1287,10 +1292,10 @@
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="n"/>
       <c r="B24" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" s="38" t="s">
         <v>29</v>
@@ -1307,19 +1312,19 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="n"/>
       <c r="B27" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>29</v>
@@ -1331,13 +1336,13 @@
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="n"/>
       <c r="B28" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="37" t="n">
         <v>3</v>
@@ -1346,10 +1351,10 @@
     <row r="29" spans="1:14">
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I29" s="37" t="s">
         <v>29</v>
@@ -1361,18 +1366,14 @@
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="n"/>
       <c r="B30" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="37" t="s">
         <v>58</v>
       </c>
+      <c r="I30" s="37" t="n"/>
       <c r="J30" s="10" t="n"/>
-      <c r="K30" s="37" t="n">
-        <v>4</v>
-      </c>
+      <c r="K30" s="37" t="n"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="n"/>
@@ -1392,58 +1393,63 @@
         <v>61</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J32" s="10" t="n"/>
       <c r="K32" s="37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4" t="n"/>
-      <c r="I33" s="10" t="n"/>
-      <c r="K33" s="10" t="n"/>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="M33" s="10" t="n"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="n"/>
       <c r="B35" s="33" t="n"/>
       <c r="G35" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I35" s="37" t="s">
         <v>27</v>
       </c>
       <c r="K35" s="37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="n"/>
       <c r="B36" s="33" t="n"/>
       <c r="G36" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K36" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M36" s="37" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M36" s="37" t="n"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="n"/>
@@ -1453,16 +1459,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4" t="n"/>
       <c r="B39" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -1471,7 +1477,7 @@
     <row r="41" spans="1:14">
       <c r="A41" s="4" t="n"/>
       <c r="B41" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I41" s="10" t="n"/>
       <c r="K41" s="10" t="n"/>
@@ -1479,7 +1485,7 @@
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="n"/>
       <c r="B42" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I42" s="10" t="n"/>
       <c r="K42" s="10" t="n"/>
@@ -1487,19 +1493,19 @@
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="n"/>
       <c r="B43" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4" t="n"/>
       <c r="B44" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="n"/>
       <c r="B45" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" s="10" t="n"/>
       <c r="K45" s="10" t="n"/>
@@ -1507,7 +1513,7 @@
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I46" s="10" t="n"/>
       <c r="K46" s="10" t="n"/>
@@ -1515,7 +1521,7 @@
     <row r="47" spans="1:14">
       <c r="A47" s="4" t="n"/>
       <c r="B47" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -1601,9 +1607,7 @@
       <c r="H57" s="35" t="n"/>
       <c r="I57" s="10" t="n"/>
       <c r="K57" s="10" t="n"/>
-      <c r="M57" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="M57" s="37" t="n"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4" t="n"/>
@@ -1670,22 +1674,22 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="n"/>
       <c r="B65" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K65" s="37" t="n">
         <v>4</v>
@@ -1710,28 +1714,28 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4" t="n"/>
       <c r="B69" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="70" spans="1:14">
       <c r="A70" s="4" t="n"/>
       <c r="B70" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K70" s="37" t="n">
         <v>4</v>
@@ -1740,17 +1744,13 @@
     <row r="71" spans="1:14">
       <c r="A71" s="4" t="n"/>
       <c r="B71" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I71" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K71" s="38" t="n">
-        <v>3</v>
-      </c>
+      <c r="I71" s="38" t="n"/>
+      <c r="K71" s="38" t="n"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="33" t="n"/>
@@ -1767,7 +1767,7 @@
         <v>90</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K73" s="37" t="n">
         <v>1</v>
@@ -1782,10 +1782,10 @@
         <v>92</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="K74" s="37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -1796,13 +1796,13 @@
     <row customHeight="1" ht="13.5" r="76" spans="1:14">
       <c r="A76" s="4" t="n"/>
       <c r="B76" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K76" s="37" t="n">
         <v>3</v>
@@ -1811,10 +1811,10 @@
     <row r="77" spans="1:14">
       <c r="A77" s="4" t="n"/>
       <c r="B77" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I77" s="37" t="s">
         <v>29</v>
@@ -1827,13 +1827,13 @@
     <row r="78" spans="1:14">
       <c r="A78" s="4" t="n"/>
       <c r="B78" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D78" s="35" t="n"/>
       <c r="E78" s="35" t="n"/>
       <c r="F78" s="35" t="n"/>
       <c r="G78" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I78" s="37" t="s">
         <v>29</v>
@@ -1846,25 +1846,21 @@
     <row r="79" spans="1:14">
       <c r="A79" s="4" t="n"/>
       <c r="B79" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I79" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K79" s="37" t="n">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I79" s="37" t="n"/>
+      <c r="K79" s="37" t="n"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4" t="n"/>
       <c r="B80" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>29</v>
@@ -1876,17 +1872,13 @@
     <row r="81" spans="1:14">
       <c r="A81" s="4" t="n"/>
       <c r="B81" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I81" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="38" t="n">
-        <v>3</v>
-      </c>
+      <c r="I81" s="38" t="n"/>
+      <c r="K81" s="38" t="n"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="4" t="n"/>
@@ -1914,7 +1906,7 @@
         <v>109</v>
       </c>
       <c r="I84" s="37" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="J84" s="10" t="n"/>
       <c r="K84" s="37" t="n">
@@ -1924,10 +1916,10 @@
     <row r="85" spans="1:14">
       <c r="A85" s="4" t="n"/>
       <c r="B85" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="33" t="s">
         <v>111</v>
-      </c>
-      <c r="G85" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="I85" s="37" t="s">
         <v>29</v>
@@ -1939,47 +1931,27 @@
     <row r="86" spans="1:14">
       <c r="A86" s="4" t="n"/>
       <c r="B86" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="I86" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="K86" s="37" t="n">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G86" s="33" t="n"/>
+      <c r="I86" s="37" t="n"/>
+      <c r="K86" s="37" t="n"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="4" t="n"/>
       <c r="B87" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="K87" s="38" t="n">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I87" s="38" t="n"/>
+      <c r="K87" s="38" t="n"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="4" t="n"/>
       <c r="B88" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G88" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K88" s="10" t="n">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I88" s="10" t="n"/>
+      <c r="K88" s="10" t="n"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4" t="n"/>
@@ -1995,7 +1967,7 @@
       <c r="I90" s="38" t="n"/>
       <c r="K90" s="38" t="n"/>
       <c r="M90" s="37" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -2003,33 +1975,25 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I92" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K92" s="37" t="n">
-        <v>3</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I92" s="37" t="n"/>
+      <c r="K92" s="37" t="n"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4" t="n"/>
       <c r="B93" s="33" t="n"/>
       <c r="G93" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="I93" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K93" s="37" t="n">
-        <v>3</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I93" s="37" t="n"/>
+      <c r="K93" s="37" t="n"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4" t="n"/>
@@ -2044,9 +2008,7 @@
       <c r="G95" s="33" t="n"/>
       <c r="I95" s="38" t="n"/>
       <c r="K95" s="38" t="n"/>
-      <c r="M95" s="37" t="n">
-        <v>6</v>
-      </c>
+      <c r="M95" s="37" t="n"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4" t="n"/>
@@ -2062,12 +2024,12 @@
       <c r="A98" s="4" t="n"/>
       <c r="I98" s="10" t="n"/>
       <c r="J98" s="45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K98" s="10" t="n"/>
       <c r="L98" s="10" t="n"/>
       <c r="M98" s="37" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -2075,14 +2037,14 @@
       <c r="J99" s="48" t="n"/>
       <c r="K99" s="41" t="n"/>
       <c r="L99" s="41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4" t="n"/>
       <c r="B100" s="37" t="n"/>
       <c r="C100" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H100" s="37" t="n"/>
     </row>
@@ -2090,7 +2052,7 @@
       <c r="A101" s="4" t="n"/>
       <c r="B101" s="38" t="n"/>
       <c r="C101" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H101" s="37" t="n"/>
     </row>
@@ -2098,7 +2060,7 @@
       <c r="A102" s="4" t="n"/>
       <c r="B102" s="38" t="n"/>
       <c r="C102" s="33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H102" s="37" t="n"/>
     </row>
@@ -2108,29 +2070,29 @@
     <row r="104" spans="1:14">
       <c r="A104" s="4" t="n"/>
       <c r="B104" s="37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G104" s="36" t="n"/>
       <c r="H104" s="33" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="n"/>
       <c r="B105" s="38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -2140,7 +2102,7 @@
     <row r="107" spans="1:14">
       <c r="A107" s="4" t="n"/>
       <c r="B107" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C107" s="34" t="n"/>
       <c r="D107" s="34" t="n"/>
@@ -2155,7 +2117,7 @@
     <row r="108" spans="1:14">
       <c r="A108" s="4" t="n"/>
       <c r="B108" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C108" s="34" t="n"/>
       <c r="D108" s="34" t="n"/>
@@ -2170,7 +2132,7 @@
     <row r="109" spans="1:14">
       <c r="A109" s="4" t="n"/>
       <c r="B109" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C109" s="34" t="n"/>
       <c r="D109" s="34" t="n"/>
@@ -2185,17 +2147,76 @@
     <row r="110" spans="1:14">
       <c r="A110" s="4" t="n"/>
       <c r="C110" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H110" s="40" t="n"/>
       <c r="K110" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="E111" s="40" t="n"/>
       <c r="H111" s="40" t="n"/>
-    </row>
+      <c r="K111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="K112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="K113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="K114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="K115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="K116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="K117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="K118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="K119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14"/>
+    <row r="121" spans="1:14"/>
+    <row r="122" spans="1:14"/>
+    <row r="123" spans="1:14"/>
+    <row r="124" spans="1:14"/>
+    <row r="125" spans="1:14"/>
+    <row r="126" spans="1:14"/>
+    <row r="127" spans="1:14"/>
+    <row r="128" spans="1:14"/>
+    <row r="129" spans="1:14"/>
+    <row r="130" spans="1:14"/>
+    <row r="131" spans="1:14"/>
+    <row r="132" spans="1:14"/>
+    <row r="133" spans="1:14"/>
+    <row r="134" spans="1:14"/>
+    <row r="135" spans="1:14"/>
   </sheetData>
   <mergeCells count="131">
     <mergeCell ref="B1:M1"/>
